--- a/ResultadoEleicoesDistritos/GUARDA_GOUVEIA.xlsx
+++ b/ResultadoEleicoesDistritos/GUARDA_GOUVEIA.xlsx
@@ -597,64 +597,64 @@
         <v>3590</v>
       </c>
       <c r="H2" t="n">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="I2" t="n">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="J2" t="n">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>366</v>
+        <v>446</v>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N2" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="S2" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T2" t="n">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="U2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="V2" t="n">
-        <v>2305</v>
+        <v>2273</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>2357</v>
+        <v>2300</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
